--- a/Documents/Project.xlsx
+++ b/Documents/Project.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="lan" sheetId="5" r:id="rId1"/>
     <sheet name="Character" sheetId="1" r:id="rId2"/>
-    <sheet name="Skill" sheetId="2" r:id="rId3"/>
-    <sheet name="Item" sheetId="3" r:id="rId4"/>
-    <sheet name="Mission" sheetId="4" r:id="rId5"/>
+    <sheet name="Camera" sheetId="6" r:id="rId3"/>
+    <sheet name="Skill" sheetId="2" r:id="rId4"/>
+    <sheet name="Item" sheetId="3" r:id="rId5"/>
+    <sheet name="Mission" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>idx</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,13 +92,85 @@
   <si>
     <t>f</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Camera_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delay</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shake_Time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shake_X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shake_Y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shake_Spd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Damping</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Max_Shake_Count</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Local</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카메라ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작딜레이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쉐이크시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쉐이크강도_X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쉐이크강도_Y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쉐이크속도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>감쇄값</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대쉐이크수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로컬설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +182,13 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -559,7 +639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
@@ -809,12 +889,392 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1000001</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>1000002</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="F4" s="1">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>7</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>1000003</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="1">
+        <v>7</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>1000004</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>4</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>1000005</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="F7" s="1">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="H7" s="1">
+        <v>3</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>1000006</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="1">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>7</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>1000007</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>10</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>7</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>1000008</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="1">
+        <v>20</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>4</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>1000009</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="D11" s="1">
+        <v>5</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>20</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>4</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>1000010</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="D12" s="1">
+        <v>5</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="F12" s="1">
+        <v>20</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>4</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>1000011</v>
+      </c>
+      <c r="B13" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="D13" s="1">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>20</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>4</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -844,4 +1304,19 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>